--- a/DataSetMostCommonColor.xlsx
+++ b/DataSetMostCommonColor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/Final Project 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33F8BD1-F430-B345-B484-C8701FCE3045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{A33F8BD1-F430-B345-B484-C8701FCE3045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC4C6A8-C3D4-3448-ABE4-CFE93C5607FF}"/>
   <bookViews>
-    <workbookView xWindow="14240" yWindow="760" windowWidth="16000" windowHeight="17260" xr2:uid="{02A1C1EB-EF40-8A43-88F3-A36CFEBB183A}"/>
+    <workbookView xWindow="14240" yWindow="760" windowWidth="16000" windowHeight="17200" xr2:uid="{02A1C1EB-EF40-8A43-88F3-A36CFEBB183A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Silver</t>
   </si>
   <si>
-    <t>Silver (Grey)</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Pink</t>
+  </si>
+  <si>
+    <t>Red</t>
   </si>
 </sst>
 </file>
@@ -136,6 +136,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,7 +442,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -472,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -480,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -488,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -496,22 +500,31 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
